--- a/Git Tutorials Content.xlsx
+++ b/Git Tutorials Content.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="16215" windowHeight="9225" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="16215" windowHeight="9225" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="384">
   <si>
     <t>https://dzone.com/articles/version-control-git-vs-svn</t>
   </si>
@@ -486,9 +486,6 @@
     <t>Git Introduction &amp; Terminologies</t>
   </si>
   <si>
-    <t>Understand Git Folder Structure</t>
-  </si>
-  <si>
     <t>Configure Git</t>
   </si>
   <si>
@@ -562,9 +559,6 @@
   </si>
   <si>
     <t>How to configure username and gmail?</t>
-  </si>
-  <si>
-    <t>How to write our own 'git config' commands using 'git help'</t>
   </si>
   <si>
     <t>How to create local .git repository and check current status of repository?</t>
@@ -922,12 +916,6 @@
     <t>What is Tree, Commit and Branches?</t>
   </si>
   <si>
-    <t>Make PPT</t>
-  </si>
-  <si>
-    <t>Demo git init commands</t>
-  </si>
-  <si>
     <t>Demo Tree diagram</t>
   </si>
   <si>
@@ -1268,13 +1256,109 @@
   </si>
   <si>
     <t>Check System config file, output only the names of config variables for --list or --get-regexp</t>
+  </si>
+  <si>
+    <t>Understand Git Repository Layout</t>
+  </si>
+  <si>
+    <t>Demo git init commands
+Global Config path: 
+C:/Users/jigar.mehta1/.gitconfig
+System Config Path:
+C:/Program Files/Git/mingw64/etc/gitconfig</t>
+  </si>
+  <si>
+    <t>Global Config path: 
+C:/Users/jigar.mehta1/.gitconfig
+System Config Path:
+C:/Program Files/Git/mingw64/etc/gitconfig</t>
+  </si>
+  <si>
+    <t>Demo git status</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>git status</t>
+  </si>
+  <si>
+    <t>git status -s | git status --short</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Displays differences between the working tree and the staging area (will be shown in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RED colour</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, between the staging area and the current HEAD commit (will be shows in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Green</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> colour.)</t>
+    </r>
+  </si>
+  <si>
+    <t>Show the output in the short-format. D for Deleted, M for Modified, ?? for newly added file. Unstaged files and folders will be in RED and Uncommited will be in Green</t>
+  </si>
+  <si>
+    <t>git status --porcelain</t>
+  </si>
+  <si>
+    <t>Shows all untracked and uncommited changes in short however with no colour differentiation</t>
+  </si>
+  <si>
+    <t>Give the output in the long-format. This is the default.</t>
+  </si>
+  <si>
+    <t>git status --long | git status</t>
+  </si>
+  <si>
+    <t>git status -v | git status --verbose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In addition to the names of files that have been changed, also show the textual changes that are staged to be committed </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1322,6 +1406,22 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2352,10 +2452,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:G73"/>
+  <dimension ref="A2:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2364,12 +2464,12 @@
     <col min="3" max="3" width="28" style="3" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="55.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="34.7109375" customWidth="1"/>
+    <col min="6" max="6" width="49.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B2" t="s">
         <v>116</v>
@@ -2390,7 +2490,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2402,10 +2502,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30">
@@ -2413,10 +2513,10 @@
         <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F4" t="s">
         <v>207</v>
-      </c>
-      <c r="F4" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30">
@@ -2424,26 +2524,26 @@
         <v>3</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="225">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="210">
       <c r="D6">
         <v>4</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30">
+    </row>
+    <row r="7" spans="1:7" ht="75">
       <c r="A7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -2455,10 +2555,10 @@
         <v>5</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>258</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30">
@@ -2466,10 +2566,10 @@
         <v>6</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2477,10 +2577,10 @@
         <v>7</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F9" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2488,27 +2588,30 @@
         <v>8</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>122</v>
+        <v>369</v>
       </c>
       <c r="F10" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="60">
       <c r="A11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D11">
         <v>9</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2516,7 +2619,10 @@
         <v>10</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+      <c r="F12" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30">
@@ -2524,10 +2630,10 @@
         <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2535,43 +2641,46 @@
         <v>12</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
       <c r="D15">
         <v>13</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="F15" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30">
-      <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="D16">
         <v>14</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="30">
+        <v>132</v>
+      </c>
+      <c r="F16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
       <c r="D17">
         <v>15</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="F17" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="18" spans="2:7">
@@ -2579,7 +2688,10 @@
         <v>16</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
+      </c>
+      <c r="F18" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="2:7">
@@ -2587,10 +2699,13 @@
         <v>17</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F19" t="s">
-        <v>139</v>
+        <v>127</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="2:7">
@@ -2598,13 +2713,10 @@
         <v>18</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F20" t="s">
         <v>128</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="21" spans="2:7">
@@ -2612,10 +2724,7 @@
         <v>19</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F21" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="2:7">
@@ -2623,7 +2732,10 @@
         <v>20</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>135</v>
+        <v>173</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="2:7">
@@ -2633,61 +2745,61 @@
       <c r="E23" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="2:7" ht="30">
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="D24">
         <v>22</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="2:7" ht="30">
-      <c r="B25">
-        <v>5</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>137</v>
-      </c>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
       <c r="D25">
         <v>23</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="30">
       <c r="D26">
         <v>24</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="30">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="D27">
         <v>25</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28">
-        <v>6</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="D28">
         <v>26</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>136</v>
+        <v>155</v>
+      </c>
+      <c r="F28" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="2:7">
@@ -2695,10 +2807,10 @@
         <v>27</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="2:7">
@@ -2706,32 +2818,29 @@
         <v>28</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F30" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:7" ht="30">
       <c r="D31">
         <v>29</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F31" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" ht="30">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
       <c r="D32">
         <v>30</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F32" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="2:6">
@@ -2739,35 +2848,35 @@
         <v>31</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
+      </c>
+      <c r="F33" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="2:6">
+      <c r="B34">
+        <v>7</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="D34">
         <v>32</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="F34" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35">
-        <v>7</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="D35">
         <v>33</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="2:6">
@@ -2775,6 +2884,9 @@
         <v>34</v>
       </c>
       <c r="E36" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F36" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2785,16 +2897,13 @@
       <c r="E37" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="F37" t="s">
-        <v>154</v>
-      </c>
     </row>
     <row r="38" spans="2:6">
       <c r="D38">
         <v>36</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="2:6">
@@ -2802,7 +2911,10 @@
         <v>37</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>156</v>
+        <v>161</v>
+      </c>
+      <c r="F39" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="2:6">
@@ -2810,10 +2922,10 @@
         <v>38</v>
       </c>
       <c r="E40" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F40" t="s">
         <v>163</v>
-      </c>
-      <c r="F40" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="41" spans="2:6">
@@ -2821,40 +2933,37 @@
         <v>39</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F41" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="30">
       <c r="D42">
         <v>40</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" ht="30">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43">
+        <v>8</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="D43">
         <v>41</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44">
-        <v>8</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="D44">
         <v>42</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="2:6">
@@ -2862,7 +2971,7 @@
         <v>43</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="2:6">
@@ -2870,7 +2979,7 @@
         <v>44</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="2:6">
@@ -2878,7 +2987,7 @@
         <v>45</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="2:6">
@@ -2886,73 +2995,73 @@
         <v>46</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="2:6">
+      <c r="B49">
+        <v>9</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>176</v>
+      </c>
       <c r="D49">
         <v>47</v>
       </c>
       <c r="E49" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50">
-        <v>9</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>178</v>
-      </c>
       <c r="D50">
         <v>48</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>173</v>
-      </c>
+      <c r="F50" s="1"/>
     </row>
     <row r="51" spans="2:6">
       <c r="D51">
         <v>49</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F51" s="1"/>
+        <v>177</v>
+      </c>
     </row>
     <row r="52" spans="2:6">
       <c r="D52">
         <v>50</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="53" spans="2:6">
+      <c r="B53">
+        <v>10</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>202</v>
+      </c>
       <c r="D53">
         <v>51</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" t="s">
         <v>182</v>
       </c>
+      <c r="F53" s="1" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54">
-        <v>10</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>204</v>
-      </c>
       <c r="D54">
         <v>52</v>
       </c>
       <c r="E54" t="s">
-        <v>184</v>
-      </c>
-      <c r="F54" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2961,7 +3070,7 @@
         <v>53</v>
       </c>
       <c r="E55" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="56" spans="2:6">
@@ -2969,7 +3078,7 @@
         <v>54</v>
       </c>
       <c r="E56" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57" spans="2:6">
@@ -2977,7 +3086,7 @@
         <v>55</v>
       </c>
       <c r="E57" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="58" spans="2:6">
@@ -2985,7 +3094,7 @@
         <v>56</v>
       </c>
       <c r="E58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="59" spans="2:6">
@@ -2993,7 +3102,7 @@
         <v>57</v>
       </c>
       <c r="E59" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="60" spans="2:6">
@@ -3001,7 +3110,7 @@
         <v>58</v>
       </c>
       <c r="E60" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="61" spans="2:6">
@@ -3009,7 +3118,7 @@
         <v>59</v>
       </c>
       <c r="E61" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="62" spans="2:6">
@@ -3017,7 +3126,7 @@
         <v>60</v>
       </c>
       <c r="E62" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="63" spans="2:6">
@@ -3025,7 +3134,7 @@
         <v>61</v>
       </c>
       <c r="E63" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="64" spans="2:6">
@@ -3033,7 +3142,7 @@
         <v>62</v>
       </c>
       <c r="E64" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="65" spans="4:5">
@@ -3041,7 +3150,7 @@
         <v>63</v>
       </c>
       <c r="E65" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="66" spans="4:5">
@@ -3049,7 +3158,7 @@
         <v>64</v>
       </c>
       <c r="E66" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="67" spans="4:5">
@@ -3057,7 +3166,7 @@
         <v>65</v>
       </c>
       <c r="E67" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="68" spans="4:5">
@@ -3065,7 +3174,7 @@
         <v>66</v>
       </c>
       <c r="E68" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="69" spans="4:5">
@@ -3073,7 +3182,7 @@
         <v>67</v>
       </c>
       <c r="E69" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70" spans="4:5">
@@ -3081,7 +3190,7 @@
         <v>68</v>
       </c>
       <c r="E70" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="71" spans="4:5">
@@ -3089,7 +3198,7 @@
         <v>69</v>
       </c>
       <c r="E71" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="72" spans="4:5">
@@ -3097,24 +3206,16 @@
         <v>70</v>
       </c>
       <c r="E72" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="73" spans="4:5">
-      <c r="D73">
-        <v>71</v>
-      </c>
-      <c r="E73" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F14" r:id="rId1" location="EXAMPLES"/>
-    <hyperlink ref="G20" r:id="rId2" location="analyzechanges_in_githistory"/>
-    <hyperlink ref="F50" r:id="rId3" location="using-the-git-blame-command"/>
-    <hyperlink ref="F23" r:id="rId4" location="gitclean"/>
-    <hyperlink ref="F54" r:id="rId5"/>
+    <hyperlink ref="G19" r:id="rId2" location="analyzechanges_in_githistory"/>
+    <hyperlink ref="F49" r:id="rId3" location="using-the-git-blame-command"/>
+    <hyperlink ref="F22" r:id="rId4" location="gitclean"/>
+    <hyperlink ref="F53" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
@@ -3139,72 +3240,72 @@
   <sheetData>
     <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30">
       <c r="A5" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="75">
       <c r="A6" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30">
       <c r="A7" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="E14" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3405,10 +3506,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.42578125" defaultRowHeight="15"/>
@@ -3421,686 +3523,774 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="45">
       <c r="A2" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="75">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="60">
       <c r="A3" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="60">
       <c r="A5" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30">
       <c r="A7" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30">
       <c r="A8" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="120">
       <c r="A11" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30">
       <c r="A12" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="30">
-      <c r="A17" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="30">
       <c r="A27" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30">
       <c r="A28" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30">
       <c r="A29" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="30">
       <c r="A40" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="30">
       <c r="A41" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="30">
       <c r="A42" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="30">
       <c r="A46" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="30">
       <c r="A47" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="30">
       <c r="A48" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="30">
       <c r="A49" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="30">
       <c r="A50" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="30">
       <c r="A51" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C51" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="B52" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C52" s="2" t="s">
+    <row r="54" spans="1:3">
+      <c r="A54" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="B53" s="2" t="s">
+    <row r="55" spans="1:3">
+      <c r="A55" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C55" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="B54" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="B55" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="C55" s="2" t="s">
+      <c r="C57" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="B56" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C56" s="2" t="s">
+      <c r="C59" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="B57" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="B58" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="C58" s="2" t="s">
+      <c r="C60" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
-      <c r="B59" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C59" s="2" t="s">
+    <row r="62" spans="1:3">
+      <c r="A62" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="B60" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C60" s="2" t="s">
+      <c r="C62" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="B61" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C61" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
-      <c r="B62" s="2" t="s">
+    <row r="64" spans="1:3">
+      <c r="A64" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C64" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="B63" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="B64" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3">
-      <c r="B65" s="2" t="s">
+      <c r="C66" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3">
-      <c r="B66" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>372</v>
+    </row>
+    <row r="67" spans="1:3" ht="30">
+      <c r="A67" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="30">
+      <c r="B68" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="B69" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="B70" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="B71" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>383</v>
       </c>
     </row>
   </sheetData>

--- a/Git Tutorials Content.xlsx
+++ b/Git Tutorials Content.xlsx
@@ -13,6 +13,9 @@
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
     <sheet name="Git Commands" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Git Commands'!$A$1:$D$1</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -104,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="455">
   <si>
     <t>https://dzone.com/articles/version-control-git-vs-svn</t>
   </si>
@@ -535,9 +538,6 @@
   </si>
   <si>
     <t>Add all flavours of git commit command</t>
-  </si>
-  <si>
-    <t>git add</t>
   </si>
   <si>
     <t>git clone</t>
@@ -922,9 +922,6 @@
     <t>Demo git config commands</t>
   </si>
   <si>
-    <t>What are --system, --global and --local configs?</t>
-  </si>
-  <si>
     <t>config</t>
   </si>
   <si>
@@ -1268,12 +1265,6 @@
 C:/Program Files/Git/mingw64/etc/gitconfig</t>
   </si>
   <si>
-    <t>Global Config path: 
-C:/Users/jigar.mehta1/.gitconfig
-System Config Path:
-C:/Program Files/Git/mingw64/etc/gitconfig</t>
-  </si>
-  <si>
     <t>Demo git status</t>
   </si>
   <si>
@@ -1284,6 +1275,24 @@
   </si>
   <si>
     <t>git status -s | git status --short</t>
+  </si>
+  <si>
+    <t>git status --porcelain</t>
+  </si>
+  <si>
+    <t>Shows all untracked and uncommited changes in short however with no colour differentiation</t>
+  </si>
+  <si>
+    <t>Give the output in the long-format. This is the default.</t>
+  </si>
+  <si>
+    <t>git status --long | git status</t>
+  </si>
+  <si>
+    <t>git status -v | git status --verbose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In addition to the names of files that have been changed, also show the textual changes that are staged to be committed </t>
   </si>
   <si>
     <r>
@@ -1298,7 +1307,16 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>RED colour</t>
+      <t xml:space="preserve">RED </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>colour</t>
     </r>
     <r>
       <rPr>
@@ -1333,32 +1351,289 @@
     </r>
   </si>
   <si>
-    <t>Show the output in the short-format. D for Deleted, M for Modified, ?? for newly added file. Unstaged files and folders will be in RED and Uncommited will be in Green</t>
-  </si>
-  <si>
-    <t>git status --porcelain</t>
-  </si>
-  <si>
-    <t>Shows all untracked and uncommited changes in short however with no colour differentiation</t>
-  </si>
-  <si>
-    <t>Give the output in the long-format. This is the default.</t>
-  </si>
-  <si>
-    <t>git status --long | git status</t>
-  </si>
-  <si>
-    <t>git status -v | git status --verbose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In addition to the names of files that have been changed, also show the textual changes that are staged to be committed </t>
+    <r>
+      <t xml:space="preserve">Show the output in the short-format. D for Deleted, M for Modified, ?? for newly added file. Unstaged files and folders will be in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and Uncommited will be in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Green</t>
+    </r>
+  </si>
+  <si>
+    <t>Do not show untracked files</t>
+  </si>
+  <si>
+    <t>Shows untracked files and directories but not files in untracked directories.</t>
+  </si>
+  <si>
+    <t>Shows untracked files and directories including files in untracked directories.</t>
+  </si>
+  <si>
+    <t>git status -uno | git status --untracked-files=no</t>
+  </si>
+  <si>
+    <t>git status -unormal | git status --untracked-files=normal</t>
+  </si>
+  <si>
+    <t>git status -u | git status -uall | git status --untracked-files | git status --untracked-files=all</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>git add &lt;filename&gt;</t>
+  </si>
+  <si>
+    <t>git add &lt;filepath&gt;</t>
+  </si>
+  <si>
+    <t>git add .</t>
+  </si>
+  <si>
+    <t>Adds all untracked files/folders to staging area</t>
+  </si>
+  <si>
+    <t>E.g Adds a file in a directory to staging area e.g. git add Dir1/sample3.txt</t>
+  </si>
+  <si>
+    <t>Adds a file to staging area e.g. git add sample3.txt</t>
+  </si>
+  <si>
+    <t>git add --verbose Dir1/Dir111.txt</t>
+  </si>
+  <si>
+    <t>Shows below message:
+add 'Dir1/Dir111.txt'</t>
+  </si>
+  <si>
+    <t>git add --dry-run Dir1/Dir111.txt</t>
+  </si>
+  <si>
+    <t>Doesn't actually add the file(s), just show if they exist and/or will be ignored.</t>
+  </si>
+  <si>
+    <t>git add *.txt</t>
+  </si>
+  <si>
+    <t>Will add .txt in the current directory only to staging area</t>
+  </si>
+  <si>
+    <t>git add \*.txt</t>
+  </si>
+  <si>
+    <t>Will add .txt in the current directory and all sub-directory to staging area</t>
+  </si>
+  <si>
+    <t>git add - done</t>
+  </si>
+  <si>
+    <t>First-Time Git Setup. What are --system, --global and --local configs?</t>
+  </si>
+  <si>
+    <t>Global Config path: 
+C:/Users/jigar.mehta1/.gitconfig
+System Config Path:
+C:/Program Files/Git/mingw64/etc/gitconfig
+View all settings and where they are coming from using:
+$ git config --list --show-origin
+The first thing one should do after installing Git is to set your user name and email address as every Git commit uses this information.
+$ git config --global user.name "Jigar Mehta"
+$ git config --global user.email jigar.mehta@example.com</t>
+  </si>
+  <si>
+    <t>ls-remote</t>
+  </si>
+  <si>
+    <t>git ls-remote origin</t>
+  </si>
+  <si>
+    <t>remote</t>
+  </si>
+  <si>
+    <t>git remote show origin</t>
+  </si>
+  <si>
+    <t>Prints full list of remote references for remote-&gt;origin</t>
+  </si>
+  <si>
+    <t>clone</t>
+  </si>
+  <si>
+    <t>git clone "local directory path"</t>
+  </si>
+  <si>
+    <t>E.g. git clone "C:\Users\jigar.mehta1\sample1\selenium" - Assuming selenium is a git folder then it is cloned to local folder</t>
+  </si>
+  <si>
+    <t>git clone "local directory path" &lt;directoy name&gt;</t>
+  </si>
+  <si>
+    <t>E.g. git clone "C:\Users\jigar.mehta1\sample1\selenium" LatestSelenium - Assuming selenium is a git folder then it is cloned to local in LatestSelenium folder</t>
+  </si>
+  <si>
+    <t>branch</t>
+  </si>
+  <si>
+    <t>git branch --vv --all</t>
+  </si>
+  <si>
+    <t>git clone &lt;.git URL&gt;</t>
+  </si>
+  <si>
+    <t>hash-object</t>
+  </si>
+  <si>
+    <t>git hash-object -w test.txt</t>
+  </si>
+  <si>
+    <t>Computes the object ID value for an object with specified type with the contents of the named file (which can be outside of the work tree), and optionally writes the resulting object into the object database. Reports its object ID to its standard output. When &lt;type&gt; is not specified, it defaults to "blob".
+E.g. Computes the object ID value for test.txt and writes the resulting object into the object database. Reports its object ID to standard output.</t>
+  </si>
+  <si>
+    <t>cat-file</t>
+  </si>
+  <si>
+    <t>git cat-file -p '40 digits object ID' &gt; filename</t>
+  </si>
+  <si>
+    <t>git cat-file -p 7c1bb4b0087d5c45edc2e771b02211be2469303e
+Retrieve file content correponding to object 7c1bb4b0087d5c45edc2e771b02211be2469303e from the object database and show on console
+git cat-file -p 7c1bb4b0087d5c45edc2e771b02211be2469303e &gt; Test1.txt
+Retrieve file content correponding to object 7c1bb4b0087d5c45edc2e771b02211be2469303e from the object database and puts it into Test1.txt
+Important: This shows we aren’t storing the filename in your system — just the content. This object type is called a blob.</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>git log</t>
+  </si>
+  <si>
+    <t>git log --abbrev-commit</t>
+  </si>
+  <si>
+    <t>Displays all commmits made on the active branch with short commit ID</t>
+  </si>
+  <si>
+    <t>git log --pretty=oneline</t>
+  </si>
+  <si>
+    <t>Displays all commmits made on the active branch with full commit ID and in para format</t>
+  </si>
+  <si>
+    <t>git log --abbrev-commit --pretty=oneline</t>
+  </si>
+  <si>
+    <t>Displays all commmits made on the active branch with full commit ID and in oneline format</t>
+  </si>
+  <si>
+    <t>Displays all commmits made on the active branch with short commit ID and in oneline format</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>git show '40 digit commit ID'</t>
+  </si>
+  <si>
+    <t>Displays commit details related a particular commit</t>
+  </si>
+  <si>
+    <t>reflog</t>
+  </si>
+  <si>
+    <t>git reflog</t>
+  </si>
+  <si>
+    <t>git show HEAD@{5}</t>
+  </si>
+  <si>
+    <t>git reflog command will display all HEAD@{X}. This can then be used to view git show HEAD@{5} i.e. fifth prior value of the HEAD of your repository</t>
+  </si>
+  <si>
+    <t>git log -g &lt;branchname&gt;</t>
+  </si>
+  <si>
+    <t>Shows reflog information formatted like the git log output</t>
+  </si>
+  <si>
+    <t>A log of where your HEAD and branch references have been for few months
+Reflog information is strictly local — it’s a log only of what you’ve done in your repository. The references won’t be the same on someone else’s copy of the repository; also, right after you initially clone a repository, you’ll have an empty reflog, as no activity has occurred yet in your repository.</t>
+  </si>
+  <si>
+    <t>git show HEAD^</t>
+  </si>
+  <si>
+    <t>Show details of parent of HEAD</t>
+  </si>
+  <si>
+    <t>git show HEAD^2</t>
+  </si>
+  <si>
+    <t>Show details of second parent of HEAD. This syntax is useful only for merge commits, which have more than one parent — the first parent of a merge commit is from the branch you were on when you merged (frequently master), while the second parent of a merge commit is from the branch that was merged</t>
+  </si>
+  <si>
+    <t>git show HEAD~</t>
+  </si>
+  <si>
+    <t>~ (tilde). This also refers to the first parent, so HEAD~ and HEAD^ are equivalent.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEAD~2 means “the first parent of the first parent,” or “the grandparent” — it traverses the first parents the number of times you specify. </t>
+  </si>
+  <si>
+    <t>git show HEAD~2 | git show HEAD~~</t>
+  </si>
+  <si>
+    <t>git log master..experiment</t>
+  </si>
+  <si>
+    <t>Double Dot
+1) Current active branch should be 'experiment'
+2) Shows what is in your experiment branch that hasn’t yet been merged into your master branch</t>
+  </si>
+  <si>
+    <t>git log experiment..master</t>
+  </si>
+  <si>
+    <t>Double Dot
+1) Current active branch should be 'master'
+2) Shows what is in your master branch that hasn’t yet been merged into your experiment branch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1419,6 +1694,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2454,8 +2735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G72"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2469,7 +2750,7 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B2" t="s">
         <v>116</v>
@@ -2490,7 +2771,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2502,10 +2783,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F3" t="s">
         <v>206</v>
-      </c>
-      <c r="F3" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30">
@@ -2513,10 +2794,10 @@
         <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30">
@@ -2524,10 +2805,10 @@
         <v>3</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="210">
@@ -2535,15 +2816,15 @@
         <v>4</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="75">
       <c r="A7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -2555,10 +2836,10 @@
         <v>5</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30">
@@ -2566,10 +2847,10 @@
         <v>6</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2577,10 +2858,10 @@
         <v>7</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F9" t="s">
         <v>254</v>
-      </c>
-      <c r="F9" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2588,15 +2869,15 @@
         <v>8</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F10" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="60">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="210">
       <c r="A11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -2608,10 +2889,10 @@
         <v>9</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>257</v>
+        <v>403</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>371</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2622,7 +2903,7 @@
         <v>123</v>
       </c>
       <c r="F12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30">
@@ -2633,7 +2914,7 @@
         <v>124</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2641,7 +2922,7 @@
         <v>12</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>125</v>
@@ -2658,10 +2939,10 @@
         <v>13</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F15" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30">
@@ -2672,7 +2953,7 @@
         <v>132</v>
       </c>
       <c r="F16" t="s">
-        <v>139</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="2:7">
@@ -2732,10 +3013,10 @@
         <v>20</v>
       </c>
       <c r="E22" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="23" spans="2:7">
@@ -2743,7 +3024,7 @@
         <v>21</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F23" s="1"/>
     </row>
@@ -2758,7 +3039,7 @@
         <v>22</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="2:7">
@@ -2774,7 +3055,7 @@
         <v>24</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="2:7">
@@ -2796,10 +3077,10 @@
         <v>26</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="2:7">
@@ -2807,10 +3088,10 @@
         <v>27</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="2:7">
@@ -2818,10 +3099,10 @@
         <v>28</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="30">
@@ -2829,10 +3110,10 @@
         <v>29</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="2:7">
@@ -2840,7 +3121,7 @@
         <v>30</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="2:6">
@@ -2848,10 +3129,10 @@
         <v>31</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="2:6">
@@ -2865,10 +3146,10 @@
         <v>32</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="2:6">
@@ -2876,7 +3157,7 @@
         <v>33</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="2:6">
@@ -2884,10 +3165,10 @@
         <v>34</v>
       </c>
       <c r="E36" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F36" t="s">
         <v>151</v>
-      </c>
-      <c r="F36" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="37" spans="2:6">
@@ -2895,7 +3176,7 @@
         <v>35</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="2:6">
@@ -2903,7 +3184,7 @@
         <v>36</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="2:6">
@@ -2911,10 +3192,10 @@
         <v>37</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="2:6">
@@ -2922,10 +3203,10 @@
         <v>38</v>
       </c>
       <c r="E40" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F40" t="s">
         <v>162</v>
-      </c>
-      <c r="F40" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="41" spans="2:6">
@@ -2933,7 +3214,7 @@
         <v>39</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="30">
@@ -2941,7 +3222,7 @@
         <v>40</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="2:6">
@@ -2955,7 +3236,7 @@
         <v>41</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="2:6">
@@ -2963,7 +3244,7 @@
         <v>42</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="2:6">
@@ -2971,7 +3252,7 @@
         <v>43</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="2:6">
@@ -2979,7 +3260,7 @@
         <v>44</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="2:6">
@@ -2987,7 +3268,7 @@
         <v>45</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="2:6">
@@ -2995,7 +3276,7 @@
         <v>46</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="2:6">
@@ -3003,16 +3284,16 @@
         <v>9</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D49">
         <v>47</v>
       </c>
       <c r="E49" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="50" spans="2:6">
@@ -3020,7 +3301,7 @@
         <v>48</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F50" s="1"/>
     </row>
@@ -3029,7 +3310,7 @@
         <v>49</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="52" spans="2:6">
@@ -3037,7 +3318,7 @@
         <v>50</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="53" spans="2:6">
@@ -3045,16 +3326,16 @@
         <v>10</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D53">
         <v>51</v>
       </c>
       <c r="E53" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="54" spans="2:6">
@@ -3062,7 +3343,7 @@
         <v>52</v>
       </c>
       <c r="E54" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55" spans="2:6">
@@ -3070,7 +3351,7 @@
         <v>53</v>
       </c>
       <c r="E55" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="2:6">
@@ -3078,7 +3359,7 @@
         <v>54</v>
       </c>
       <c r="E56" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="57" spans="2:6">
@@ -3086,7 +3367,7 @@
         <v>55</v>
       </c>
       <c r="E57" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="58" spans="2:6">
@@ -3094,7 +3375,7 @@
         <v>56</v>
       </c>
       <c r="E58" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="59" spans="2:6">
@@ -3102,7 +3383,7 @@
         <v>57</v>
       </c>
       <c r="E59" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="60" spans="2:6">
@@ -3110,7 +3391,7 @@
         <v>58</v>
       </c>
       <c r="E60" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="61" spans="2:6">
@@ -3118,7 +3399,7 @@
         <v>59</v>
       </c>
       <c r="E61" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="62" spans="2:6">
@@ -3126,7 +3407,7 @@
         <v>60</v>
       </c>
       <c r="E62" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="63" spans="2:6">
@@ -3134,7 +3415,7 @@
         <v>61</v>
       </c>
       <c r="E63" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="64" spans="2:6">
@@ -3142,7 +3423,7 @@
         <v>62</v>
       </c>
       <c r="E64" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="65" spans="4:5">
@@ -3150,7 +3431,7 @@
         <v>63</v>
       </c>
       <c r="E65" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="66" spans="4:5">
@@ -3158,7 +3439,7 @@
         <v>64</v>
       </c>
       <c r="E66" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="67" spans="4:5">
@@ -3166,7 +3447,7 @@
         <v>65</v>
       </c>
       <c r="E67" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="68" spans="4:5">
@@ -3174,7 +3455,7 @@
         <v>66</v>
       </c>
       <c r="E68" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="69" spans="4:5">
@@ -3182,7 +3463,7 @@
         <v>67</v>
       </c>
       <c r="E69" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="70" spans="4:5">
@@ -3190,7 +3471,7 @@
         <v>68</v>
       </c>
       <c r="E70" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="71" spans="4:5">
@@ -3198,7 +3479,7 @@
         <v>69</v>
       </c>
       <c r="E71" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="72" spans="4:5">
@@ -3206,7 +3487,7 @@
         <v>70</v>
       </c>
       <c r="E72" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -3240,72 +3521,72 @@
   <sheetData>
     <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>209</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>211</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>215</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30">
       <c r="A5" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>217</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="75">
       <c r="A6" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>219</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30">
       <c r="A7" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>221</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="E14" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>227</v>
-      </c>
       <c r="H14" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3506,11 +3787,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B71" sqref="B71"/>
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.42578125" defaultRowHeight="15"/>
@@ -3523,777 +3804,1136 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="45">
       <c r="A2" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="60">
       <c r="A3" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>232</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="60">
       <c r="A5" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30">
       <c r="A7" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30">
       <c r="A8" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="120">
       <c r="A11" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30">
       <c r="A12" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>260</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="30">
       <c r="A27" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30">
       <c r="A28" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30">
       <c r="A29" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="30">
       <c r="A40" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="30">
       <c r="A41" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="30">
       <c r="A42" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="30">
       <c r="A46" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="30">
       <c r="A47" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="30">
       <c r="A48" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="30">
       <c r="A49" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="30">
       <c r="A50" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="30">
       <c r="A51" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>341</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>359</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="30">
       <c r="A67" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="30">
+      <c r="A68" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C67" s="2" t="s">
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="30">
-      <c r="B68" s="2" t="s">
+      <c r="C70" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C68" s="2" t="s">
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="B69" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="B70" s="2" t="s">
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="B71" s="2" t="s">
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="C71" s="2" t="s">
+    </row>
+    <row r="74" spans="1:3" ht="30">
+      <c r="A74" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>383</v>
       </c>
     </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="30">
+      <c r="A78" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="30">
+      <c r="A88" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="75">
+      <c r="A92" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="105">
+      <c r="A93" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="60">
+      <c r="A99" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="30">
+      <c r="A100" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="45">
+      <c r="A103" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="30">
+      <c r="A105" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="45">
+      <c r="A106" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="45">
+      <c r="A107" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:D1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/Git Tutorials Content.xlsx
+++ b/Git Tutorials Content.xlsx
@@ -12,11 +12,13 @@
     <sheet name="ToC" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
     <sheet name="Git Commands" sheetId="5" r:id="rId5"/>
+    <sheet name="Unix Commmands" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Git Commands'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Git Commands'!$A$1:$D$122</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -68,7 +70,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>git config [&lt;file-option&gt;] [--type=&lt;type&gt;] [--show-origin] [-z|--null] name [value [value_regex]]
 git config [&lt;file-option&gt;] [--type=&lt;type&gt;] --add name value
@@ -95,7 +97,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 git config [&lt;file-option&gt;] [--show-origin] [-z|--null] [--name-only] -l | --list</t>
@@ -107,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="501">
   <si>
     <t>https://dzone.com/articles/version-control-git-vs-svn</t>
   </si>
@@ -1202,12 +1204,6 @@
   </si>
   <si>
     <t xml:space="preserve"> git config --local --remove-section core</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> git config --global --remove-section core</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> git config --system --remove-section core</t>
   </si>
   <si>
     <t>Check Local config file, remove the entire section from config file.</t>
@@ -1418,9 +1414,6 @@
     <t>git add .</t>
   </si>
   <si>
-    <t>Adds all untracked files/folders to staging area</t>
-  </si>
-  <si>
     <t>E.g Adds a file in a directory to staging area e.g. git add Dir1/sample3.txt</t>
   </si>
   <si>
@@ -1613,9 +1606,6 @@
     <t>git show HEAD~2 | git show HEAD~~</t>
   </si>
   <si>
-    <t>git log master..experiment</t>
-  </si>
-  <si>
     <t>Double Dot
 1) Current active branch should be 'experiment'
 2) Shows what is in your experiment branch that hasn’t yet been merged into your master branch</t>
@@ -1627,13 +1617,171 @@
     <t>Double Dot
 1) Current active branch should be 'master'
 2) Shows what is in your master branch that hasn’t yet been merged into your experiment branch</t>
+  </si>
+  <si>
+    <t>git log master..experiment | git log ^master experiment | git log experiment --not master</t>
+  </si>
+  <si>
+    <t>git log experiment...master</t>
+  </si>
+  <si>
+    <t>Triple Dot
+1) Specifies all the commits that are reachable by either of two references but not by both of them.</t>
+  </si>
+  <si>
+    <t>Command Name</t>
+  </si>
+  <si>
+    <t>List all files and directories in current path</t>
+  </si>
+  <si>
+    <t>find &lt;directorypath&gt;</t>
+  </si>
+  <si>
+    <t>List all files and directories in directoty path</t>
+  </si>
+  <si>
+    <t>git cat-file -p master^{tree}</t>
+  </si>
+  <si>
+    <t>The master^{tree} syntax specifies the tree object that is pointed to by the last commit on your master branch.</t>
+  </si>
+  <si>
+    <t>git config --global --remove-section core</t>
+  </si>
+  <si>
+    <t>git config --system --remove-section core</t>
+  </si>
+  <si>
+    <t>git cat-file -t ShaID</t>
+  </si>
+  <si>
+    <t>Shows the type of the object represented by the given hash</t>
+  </si>
+  <si>
+    <t>git cat-file -p ShaID</t>
+  </si>
+  <si>
+    <t>Shows the contents of the file associated with the given hash</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>update-ref</t>
+  </si>
+  <si>
+    <t>Updates refs/heads/test to e7ccf5e</t>
+  </si>
+  <si>
+    <t>git symbolic-ref HEAD</t>
+  </si>
+  <si>
+    <t>git update-ref refs/heads/test e7ccf5e</t>
+  </si>
+  <si>
+    <t>symbolic-ref</t>
+  </si>
+  <si>
+    <t>Shows value of  .git/HEAD</t>
+  </si>
+  <si>
+    <t>List the existing tags in alphabetical order</t>
+  </si>
+  <si>
+    <t>git tag | git tag -l | git tag --list</t>
+  </si>
+  <si>
+    <t>git tag -a "Tel v1.0" -m "Creating tag for v1.0"</t>
+  </si>
+  <si>
+    <t>Creates an annotated tag "Tel v1.0" with message Creating tag for v1.0</t>
+  </si>
+  <si>
+    <t>git tag l "Te*"</t>
+  </si>
+  <si>
+    <t>List the existing tags starting with Te. Te* is the regular expression.</t>
+  </si>
+  <si>
+    <t>git show "Tel v1.0"</t>
+  </si>
+  <si>
+    <t>Shows the tag data along with the commit information. Tel v1.0 is a tag.</t>
+  </si>
+  <si>
+    <t>git tag "Tel v1.1"</t>
+  </si>
+  <si>
+    <t>Creates a lightweight tag Tel v1.1. Don’t supply any of the -a, -s, or -m options, just provide a tag name to create lightweight tag.
+Note: Run git show on the tag i.e. git show  Tel v1.1 and we don’t see the extra tag information. The command just shows the commit.</t>
+  </si>
+  <si>
+    <t>Taggin on previous commit</t>
+  </si>
+  <si>
+    <t>git tag -a v1.2 4c95a9d -m "Tagging previous commit"</t>
+  </si>
+  <si>
+    <t>push</t>
+  </si>
+  <si>
+    <t>git push origin &lt;tagname&gt;
+e.g. git push origin --tags</t>
+  </si>
+  <si>
+    <t>This will transfer all of tags to the remote server that are not already there. Git pushes both types of tags i.e. annonated and lighweight</t>
+  </si>
+  <si>
+    <t>git tag -d &lt;tagname&gt;
+git tag -d v1.2</t>
+  </si>
+  <si>
+    <t>Deletes a tag on local repository</t>
+  </si>
+  <si>
+    <t>git push origin --delete &lt;tagname&gt;</t>
+  </si>
+  <si>
+    <t>Deletes a tag on remote server</t>
+  </si>
+  <si>
+    <t>checkout</t>
+  </si>
+  <si>
+    <t>git checkout &lt;tagname&gt;
+e.g. git checkout v1.2</t>
+  </si>
+  <si>
+    <t>Views the versions of files a tag is pointing to, we can do a git checkout of that tag, although this puts our repository in “detached HEAD” state</t>
+  </si>
+  <si>
+    <t>In “detached HEAD” state, if you make changes and then create a commit, the tag will stay the same, but your new commit won’t belong to any branch and will be unreachable, except by the exact commit hash. Thus, if you need to make changes — say you’re fixing a bug on an older version, for instance — you will generally want to create a branch:</t>
+  </si>
+  <si>
+    <t>git checkout -b &lt;branchname&gt; &lt;tagname&gt;
+e.g. git checkout -b version2 v1.2</t>
+  </si>
+  <si>
+    <t>git update-ref refs/tags/Radv5.0 f28e9ea</t>
+  </si>
+  <si>
+    <t>Updates tag Radv5.0 to commit f28e9ea</t>
+  </si>
+  <si>
+    <t>find
+e.g. find .git/objects -type f</t>
+  </si>
+  <si>
+    <t>Adds all untracked files/folders to staging area
+It will record not just a file modified in the working tree, a file added to the working tree and also a file removed from the working area.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1668,19 +1816,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -2735,8 +2870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G72"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2839,7 +2974,7 @@
         <v>251</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30">
@@ -2869,7 +3004,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F10" t="s">
         <v>206</v>
@@ -2889,10 +3024,10 @@
         <v>9</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2942,7 +3077,7 @@
         <v>146</v>
       </c>
       <c r="F15" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30">
@@ -2953,7 +3088,7 @@
         <v>132</v>
       </c>
       <c r="F16" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="2:7">
@@ -2961,7 +3096,10 @@
         <v>15</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
+      </c>
+      <c r="F17" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="2:7">
@@ -2969,10 +3107,7 @@
         <v>16</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F18" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="2:7">
@@ -3787,11 +3922,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D107"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A107" sqref="A107"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.42578125" defaultRowHeight="15"/>
@@ -3813,7 +3949,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45">
+    <row r="2" spans="1:4" ht="45" hidden="1">
       <c r="A2" s="2" t="s">
         <v>230</v>
       </c>
@@ -3824,7 +3960,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="60">
+    <row r="3" spans="1:4" ht="60" hidden="1">
       <c r="A3" s="2" t="s">
         <v>230</v>
       </c>
@@ -3835,7 +3971,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" hidden="1">
       <c r="A4" s="2" t="s">
         <v>230</v>
       </c>
@@ -3846,7 +3982,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="60">
+    <row r="5" spans="1:4" ht="60" hidden="1">
       <c r="A5" s="2" t="s">
         <v>230</v>
       </c>
@@ -3857,7 +3993,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" hidden="1">
       <c r="A6" s="2" t="s">
         <v>230</v>
       </c>
@@ -3868,7 +4004,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30">
+    <row r="7" spans="1:4" ht="30" hidden="1">
       <c r="A7" s="2" t="s">
         <v>230</v>
       </c>
@@ -3879,7 +4015,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30">
+    <row r="8" spans="1:4" ht="30" hidden="1">
       <c r="A8" s="2" t="s">
         <v>230</v>
       </c>
@@ -3890,7 +4026,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" hidden="1">
       <c r="A9" s="2" t="s">
         <v>230</v>
       </c>
@@ -3901,7 +4037,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" hidden="1">
       <c r="A10" s="2" t="s">
         <v>230</v>
       </c>
@@ -3912,7 +4048,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="120">
+    <row r="11" spans="1:4" ht="120" hidden="1">
       <c r="A11" s="2" t="s">
         <v>230</v>
       </c>
@@ -3923,7 +4059,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30">
+    <row r="12" spans="1:4" ht="30" hidden="1">
       <c r="A12" s="2" t="s">
         <v>256</v>
       </c>
@@ -3937,7 +4073,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" hidden="1">
       <c r="A13" s="2" t="s">
         <v>256</v>
       </c>
@@ -3948,7 +4084,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" hidden="1">
       <c r="A14" s="2" t="s">
         <v>256</v>
       </c>
@@ -3959,7 +4095,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" hidden="1">
       <c r="A15" s="2" t="s">
         <v>256</v>
       </c>
@@ -3970,7 +4106,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" hidden="1">
       <c r="A16" s="2" t="s">
         <v>256</v>
       </c>
@@ -3981,7 +4117,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" hidden="1">
       <c r="A17" s="2" t="s">
         <v>256</v>
       </c>
@@ -3992,7 +4128,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" hidden="1">
       <c r="A18" s="2" t="s">
         <v>256</v>
       </c>
@@ -4003,7 +4139,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" hidden="1">
       <c r="A19" s="2" t="s">
         <v>256</v>
       </c>
@@ -4014,7 +4150,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" hidden="1">
       <c r="A20" s="2" t="s">
         <v>256</v>
       </c>
@@ -4025,7 +4161,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" hidden="1">
       <c r="A21" s="2" t="s">
         <v>256</v>
       </c>
@@ -4036,7 +4172,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" hidden="1">
       <c r="A22" s="2" t="s">
         <v>256</v>
       </c>
@@ -4047,7 +4183,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" hidden="1">
       <c r="A23" s="2" t="s">
         <v>256</v>
       </c>
@@ -4058,7 +4194,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" hidden="1">
       <c r="A24" s="2" t="s">
         <v>256</v>
       </c>
@@ -4069,7 +4205,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" hidden="1">
       <c r="A25" s="2" t="s">
         <v>256</v>
       </c>
@@ -4080,7 +4216,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" hidden="1">
       <c r="A26" s="2" t="s">
         <v>256</v>
       </c>
@@ -4091,7 +4227,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="30">
+    <row r="27" spans="1:3" ht="30" hidden="1">
       <c r="A27" s="2" t="s">
         <v>256</v>
       </c>
@@ -4102,7 +4238,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="30">
+    <row r="28" spans="1:3" ht="30" hidden="1">
       <c r="A28" s="2" t="s">
         <v>256</v>
       </c>
@@ -4113,7 +4249,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30">
+    <row r="29" spans="1:3" ht="30" hidden="1">
       <c r="A29" s="2" t="s">
         <v>256</v>
       </c>
@@ -4124,7 +4260,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" hidden="1">
       <c r="A30" s="2" t="s">
         <v>256</v>
       </c>
@@ -4135,7 +4271,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" hidden="1">
       <c r="A31" s="2" t="s">
         <v>256</v>
       </c>
@@ -4146,7 +4282,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" hidden="1">
       <c r="A32" s="2" t="s">
         <v>256</v>
       </c>
@@ -4157,7 +4293,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" hidden="1">
       <c r="A33" s="2" t="s">
         <v>256</v>
       </c>
@@ -4168,7 +4304,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" hidden="1">
       <c r="A34" s="2" t="s">
         <v>256</v>
       </c>
@@ -4179,7 +4315,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" hidden="1">
       <c r="A35" s="2" t="s">
         <v>256</v>
       </c>
@@ -4190,7 +4326,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" hidden="1">
       <c r="A36" s="2" t="s">
         <v>256</v>
       </c>
@@ -4201,7 +4337,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" hidden="1">
       <c r="A37" s="2" t="s">
         <v>256</v>
       </c>
@@ -4212,7 +4348,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" hidden="1">
       <c r="A38" s="2" t="s">
         <v>256</v>
       </c>
@@ -4223,7 +4359,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" hidden="1">
       <c r="A39" s="2" t="s">
         <v>256</v>
       </c>
@@ -4234,7 +4370,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30">
+    <row r="40" spans="1:3" ht="30" hidden="1">
       <c r="A40" s="2" t="s">
         <v>256</v>
       </c>
@@ -4245,7 +4381,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30">
+    <row r="41" spans="1:3" ht="30" hidden="1">
       <c r="A41" s="2" t="s">
         <v>256</v>
       </c>
@@ -4256,7 +4392,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="30">
+    <row r="42" spans="1:3" ht="30" hidden="1">
       <c r="A42" s="2" t="s">
         <v>256</v>
       </c>
@@ -4267,7 +4403,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" hidden="1">
       <c r="A43" s="2" t="s">
         <v>256</v>
       </c>
@@ -4278,7 +4414,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" hidden="1">
       <c r="A44" s="2" t="s">
         <v>256</v>
       </c>
@@ -4289,7 +4425,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" hidden="1">
       <c r="A45" s="2" t="s">
         <v>256</v>
       </c>
@@ -4300,7 +4436,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="30">
+    <row r="46" spans="1:3" ht="30" hidden="1">
       <c r="A46" s="2" t="s">
         <v>256</v>
       </c>
@@ -4311,7 +4447,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="30">
+    <row r="47" spans="1:3" ht="30" hidden="1">
       <c r="A47" s="2" t="s">
         <v>256</v>
       </c>
@@ -4322,7 +4458,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="30">
+    <row r="48" spans="1:3" ht="30" hidden="1">
       <c r="A48" s="2" t="s">
         <v>256</v>
       </c>
@@ -4333,7 +4469,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="30">
+    <row r="49" spans="1:3" ht="30" hidden="1">
       <c r="A49" s="2" t="s">
         <v>256</v>
       </c>
@@ -4344,7 +4480,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="30">
+    <row r="50" spans="1:3" ht="30" hidden="1">
       <c r="A50" s="2" t="s">
         <v>256</v>
       </c>
@@ -4355,7 +4491,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="30">
+    <row r="51" spans="1:3" ht="30" hidden="1">
       <c r="A51" s="2" t="s">
         <v>256</v>
       </c>
@@ -4366,7 +4502,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" hidden="1">
       <c r="A52" s="2" t="s">
         <v>256</v>
       </c>
@@ -4377,7 +4513,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" hidden="1">
       <c r="A53" s="2" t="s">
         <v>256</v>
       </c>
@@ -4388,7 +4524,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" hidden="1">
       <c r="A54" s="2" t="s">
         <v>256</v>
       </c>
@@ -4399,7 +4535,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" hidden="1">
       <c r="A55" s="2" t="s">
         <v>256</v>
       </c>
@@ -4410,7 +4546,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" hidden="1">
       <c r="A56" s="2" t="s">
         <v>256</v>
       </c>
@@ -4421,7 +4557,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" hidden="1">
       <c r="A57" s="2" t="s">
         <v>256</v>
       </c>
@@ -4432,7 +4568,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" hidden="1">
       <c r="A58" s="2" t="s">
         <v>256</v>
       </c>
@@ -4440,274 +4576,285 @@
         <v>349</v>
       </c>
       <c r="C58" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" hidden="1">
+      <c r="A59" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" hidden="1">
+      <c r="A60" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C59" s="2" t="s">
+    <row r="61" spans="1:3" hidden="1">
+      <c r="A61" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="C60" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B61" s="2" t="s">
+    <row r="62" spans="1:3" hidden="1">
+      <c r="A62" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C62" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" hidden="1">
+      <c r="A63" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C62" s="2" t="s">
+      <c r="C63" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" hidden="1">
+      <c r="A64" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="C63" s="2" t="s">
+      <c r="C64" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" hidden="1">
+      <c r="A65" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B64" s="2" t="s">
+      <c r="C65" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" hidden="1">
+      <c r="A66" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C66" s="2" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="30">
+    <row r="67" spans="1:3" ht="30" hidden="1">
       <c r="A67" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="30" hidden="1">
+      <c r="A68" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="C68" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" hidden="1">
+      <c r="A69" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C69" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" hidden="1">
+      <c r="A70" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" hidden="1">
+      <c r="A71" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" hidden="1">
+      <c r="A72" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="30">
-      <c r="A68" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C68" s="2" t="s">
+    <row r="73" spans="1:3" hidden="1">
+      <c r="A73" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="B72" s="2" t="s">
+    <row r="74" spans="1:3" ht="30" hidden="1">
+      <c r="A74" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C74" s="2" t="s">
         <v>381</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="30">
-      <c r="A74" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="C76" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+    </row>
+    <row r="77" spans="1:3" ht="45">
       <c r="A77" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>391</v>
+        <v>500</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="30">
       <c r="A78" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" hidden="1">
+      <c r="A82" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" hidden="1">
       <c r="A83" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="C83" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+    </row>
+    <row r="84" spans="1:3" hidden="1">
       <c r="A84" s="2" t="s">
         <v>407</v>
       </c>
@@ -4718,224 +4865,468 @@
         <v>409</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="85" spans="1:3" hidden="1">
+      <c r="A85" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="30" hidden="1">
       <c r="A86" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="C86" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="C86" s="2" t="s">
+    </row>
+    <row r="87" spans="1:3" hidden="1">
+      <c r="A87" s="2" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="2" t="s">
-        <v>410</v>
-      </c>
       <c r="B87" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="75" hidden="1">
+      <c r="A88" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="30">
-      <c r="A88" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+    <row r="89" spans="1:3" ht="105" hidden="1">
+      <c r="A89" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" hidden="1">
       <c r="A90" s="2" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="75">
+        <v>422</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" hidden="1">
+      <c r="A91" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" hidden="1">
       <c r="A92" s="2" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="105">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" hidden="1">
       <c r="A93" s="2" t="s">
         <v>421</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" hidden="1">
       <c r="A94" s="2" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="60" hidden="1">
       <c r="A95" s="2" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="30" hidden="1">
       <c r="A96" s="2" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" hidden="1">
       <c r="A97" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" hidden="1">
+      <c r="A98" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="2" t="s">
-        <v>433</v>
-      </c>
       <c r="B98" s="2" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="60">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="45" hidden="1">
       <c r="A99" s="2" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="30">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" hidden="1">
       <c r="A100" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="30" hidden="1">
       <c r="A101" s="2" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="45" hidden="1">
       <c r="A102" s="2" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="45">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="45" hidden="1">
       <c r="A103" s="2" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="30" hidden="1">
       <c r="A104" s="2" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="30">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" hidden="1">
       <c r="A105" s="2" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="45">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" hidden="1">
       <c r="A106" s="2" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="45">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" hidden="1">
       <c r="A107" s="2" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>454</v>
+        <v>465</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" hidden="1">
+      <c r="A108" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" hidden="1">
+      <c r="A109" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" hidden="1">
+      <c r="A110" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" hidden="1">
+      <c r="A111" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" hidden="1">
+      <c r="A112" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" hidden="1">
+      <c r="A113" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" hidden="1">
+      <c r="A114" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="45" hidden="1">
+      <c r="A115" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" hidden="1">
+      <c r="A116" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="30" hidden="1">
+      <c r="A117" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="30" hidden="1">
+      <c r="A118" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" hidden="1">
+      <c r="A119" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="30" hidden="1">
+      <c r="A120" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="45" hidden="1">
+      <c r="A121" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" hidden="1">
+      <c r="A122" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>498</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1"/>
+  <autoFilter ref="A1:D122">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="add"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="36" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30">
+      <c r="A2" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Git Tutorials Content.xlsx
+++ b/Git Tutorials Content.xlsx
@@ -18,7 +18,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Git Commands'!$A$1:$D$122</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -109,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="507">
   <si>
     <t>https://dzone.com/articles/version-control-git-vs-svn</t>
   </si>
@@ -1405,19 +1404,7 @@
     <t>add</t>
   </si>
   <si>
-    <t>git add &lt;filename&gt;</t>
-  </si>
-  <si>
-    <t>git add &lt;filepath&gt;</t>
-  </si>
-  <si>
     <t>git add .</t>
-  </si>
-  <si>
-    <t>E.g Adds a file in a directory to staging area e.g. git add Dir1/sample3.txt</t>
-  </si>
-  <si>
-    <t>Adds a file to staging area e.g. git add sample3.txt</t>
   </si>
   <si>
     <t>git add --verbose Dir1/Dir111.txt</t>
@@ -1434,9 +1421,6 @@
   </si>
   <si>
     <t>git add *.txt</t>
-  </si>
-  <si>
-    <t>Will add .txt in the current directory only to staging area</t>
   </si>
   <si>
     <t>git add \*.txt</t>
@@ -1775,6 +1759,45 @@
   <si>
     <t>Adds all untracked files/folders to staging area
 It will record not just a file modified in the working tree, a file added to the working tree and also a file removed from the working area.</t>
+  </si>
+  <si>
+    <t>Will add .txt only in the current directory to staging area</t>
+  </si>
+  <si>
+    <t>git add Sample/</t>
+  </si>
+  <si>
+    <t>Will add all files in the Sample directory and all sub-directory with Sample to staging area</t>
+  </si>
+  <si>
+    <t>Adds a file to staging area</t>
+  </si>
+  <si>
+    <t>Adds a file in a directory to staging area</t>
+  </si>
+  <si>
+    <t>git add &lt;filename1&gt; &lt;filename2&gt; &lt;filename3&gt; ...
+git add sample3.txt</t>
+  </si>
+  <si>
+    <t>git add &lt;filepath1&gt; &lt;filepath2&gt; &lt;filepath3&gt;
+git add Dir1/sample3.txt</t>
+  </si>
+  <si>
+    <t>git add Sample/Test2.txt</t>
+  </si>
+  <si>
+    <t>touch .gitignore (This command when run in git bash will create .gitignore file)
+Update .gitignore to Sample/Test2.txt
+Running this will throw an error</t>
+  </si>
+  <si>
+    <t>git add Sample/Test2.txt -f</t>
+  </si>
+  <si>
+    <t>touch .gitignore (This command when run in git bash will create .gitignore file)
+Update .gitignore to Sample/Test2.txt
+Running this will forefully add the file by ignoring .gitignore</t>
   </si>
 </sst>
 </file>
@@ -3024,10 +3047,10 @@
         <v>9</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3088,7 +3111,7 @@
         <v>132</v>
       </c>
       <c r="F16" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="2:7">
@@ -3923,11 +3946,11 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D122"/>
+  <dimension ref="A1:D125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C77" sqref="C77"/>
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.42578125" defaultRowHeight="15"/>
@@ -4584,7 +4607,7 @@
         <v>256</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>351</v>
@@ -4595,7 +4618,7 @@
         <v>256</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>352</v>
@@ -4755,26 +4778,26 @@
         <v>381</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" ht="30">
       <c r="A75" s="2" t="s">
         <v>385</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>386</v>
+        <v>501</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="30">
       <c r="A76" s="2" t="s">
         <v>385</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>387</v>
+        <v>502</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>389</v>
+        <v>500</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="45">
@@ -4782,10 +4805,10 @@
         <v>385</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="30">
@@ -4793,10 +4816,10 @@
         <v>385</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -4804,10 +4827,10 @@
         <v>385</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -4815,10 +4838,10 @@
         <v>385</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>396</v>
+        <v>496</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -4826,452 +4849,485 @@
         <v>385</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="82" spans="1:3" hidden="1">
       <c r="A82" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="83" spans="1:3" hidden="1">
       <c r="A83" s="2" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="84" spans="1:3" hidden="1">
       <c r="A84" s="2" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="85" spans="1:3" hidden="1">
       <c r="A85" s="2" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="30" hidden="1">
       <c r="A86" s="2" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="87" spans="1:3" hidden="1">
       <c r="A87" s="2" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="75" hidden="1">
       <c r="A88" s="2" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="105" hidden="1">
       <c r="A89" s="2" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="90" spans="1:3" hidden="1">
       <c r="A90" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="91" spans="1:3" hidden="1">
       <c r="A91" s="2" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="92" spans="1:3" hidden="1">
       <c r="A92" s="2" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="93" spans="1:3" hidden="1">
       <c r="A93" s="2" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="94" spans="1:3" hidden="1">
       <c r="A94" s="2" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="60" hidden="1">
       <c r="A95" s="2" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>434</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="30" hidden="1">
       <c r="A96" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>435</v>
-      </c>
       <c r="C96" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="97" spans="1:3" hidden="1">
       <c r="A97" s="2" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="98" spans="1:3" hidden="1">
       <c r="A98" s="2" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="45" hidden="1">
       <c r="A99" s="2" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="100" spans="1:3" hidden="1">
       <c r="A100" s="2" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="30" hidden="1">
       <c r="A101" s="2" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="45" hidden="1">
       <c r="A102" s="2" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="45" hidden="1">
       <c r="A103" s="2" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="30" hidden="1">
       <c r="A104" s="2" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="105" spans="1:3" hidden="1">
       <c r="A105" s="2" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="106" spans="1:3" hidden="1">
       <c r="A106" s="2" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="107" spans="1:3" hidden="1">
       <c r="A107" s="2" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="108" spans="1:3" hidden="1">
       <c r="A108" s="2" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="109" spans="1:3" hidden="1">
       <c r="A109" s="2" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="110" spans="1:3" hidden="1">
       <c r="A110" s="2" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="111" spans="1:3" hidden="1">
       <c r="A111" s="2" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="112" spans="1:3" hidden="1">
       <c r="A112" s="2" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="113" spans="1:3" hidden="1">
       <c r="A113" s="2" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="114" spans="1:3" hidden="1">
       <c r="A114" s="2" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="45" hidden="1">
       <c r="A115" s="2" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="116" spans="1:3" hidden="1">
       <c r="A116" s="2" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="30" hidden="1">
       <c r="A117" s="2" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="30" hidden="1">
       <c r="A118" s="2" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="119" spans="1:3" hidden="1">
       <c r="A119" s="2" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="30" hidden="1">
       <c r="A120" s="2" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="45" hidden="1">
       <c r="A121" s="2" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="122" spans="1:3" hidden="1">
       <c r="A122" s="2" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C123" s="2" t="s">
         <v>498</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="45">
+      <c r="A124" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="45">
+      <c r="A125" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>506</v>
       </c>
     </row>
   </sheetData>
@@ -5304,7 +5360,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B1" t="s">
         <v>115</v>
@@ -5312,18 +5368,18 @@
     </row>
     <row r="2" spans="1:2" ht="30">
       <c r="A2" s="2" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="B2" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B3" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>

--- a/Git Tutorials Content.xlsx
+++ b/Git Tutorials Content.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Unix Commmands" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Git Commands'!$A$1:$D$122</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Git Commands'!$A$1:$D$158</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="558">
   <si>
     <t>https://dzone.com/articles/version-control-git-vs-svn</t>
   </si>
@@ -897,15 +897,6 @@
   </si>
   <si>
     <t>git init --template=&lt;directory path&gt;</t>
-  </si>
-  <si>
-    <t>E.g. git init --template=C:\\dummy1
-Files and directories in the template directory whose name do not start with a dot will be copied to the $GIT_DIR after it is created.
-The template directory will be one of the following (in order):
-1) the argument given with the --template option;
-2) the contents of the $GIT_TEMPLATE_DIR environment variable;
-3) the init.templateDir configuration variable; or
-4) the default template directory: /usr/share/git-core/templates.</t>
   </si>
   <si>
     <t>How to create a Git repository using init command? What are Bare and Non-bare Repositories?</t>
@@ -1464,12 +1455,6 @@
     <t>clone</t>
   </si>
   <si>
-    <t>git clone "local directory path"</t>
-  </si>
-  <si>
-    <t>E.g. git clone "C:\Users\jigar.mehta1\sample1\selenium" - Assuming selenium is a git folder then it is cloned to local folder</t>
-  </si>
-  <si>
     <t>git clone "local directory path" &lt;directoy name&gt;</t>
   </si>
   <si>
@@ -1798,6 +1783,176 @@
     <t>touch .gitignore (This command when run in git bash will create .gitignore file)
 Update .gitignore to Sample/Test2.txt
 Running this will forefully add the file by ignoring .gitignore</t>
+  </si>
+  <si>
+    <t>stash</t>
+  </si>
+  <si>
+    <t>Records the current state of the working directory and the index and sets a clean working directory. (Untracked files are not stashed)</t>
+  </si>
+  <si>
+    <t>git stash | git stash push</t>
+  </si>
+  <si>
+    <t>git stash list</t>
+  </si>
+  <si>
+    <t>Show the changes recorded in the stash entry as a diff between the stashed contents and the commit back when the stash entry was first created.</t>
+  </si>
+  <si>
+    <t>List the stash entries that you currently have. Each stash entry is listed with its name (e.g. stash@{0} is the latest entry, stash@{1} is the one before, etc.)</t>
+  </si>
+  <si>
+    <t>git stash show | git stash show stash@{1} | git stash show stash@{1}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> git stash drop --quiet stash@{1}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> git stash drop stash@{0}</t>
+  </si>
+  <si>
+    <t>Remove a single stash entry from the list of stash entries.</t>
+  </si>
+  <si>
+    <t>Remove a single stash entry from the list of stash entries however don't show any message</t>
+  </si>
+  <si>
+    <t>git stash push -m "modified some file"</t>
+  </si>
+  <si>
+    <t>git stash push -u</t>
+  </si>
+  <si>
+    <t>All untracked files along with files in index are stashed</t>
+  </si>
+  <si>
+    <t>git stash push -a</t>
+  </si>
+  <si>
+    <t>All ignored and untracked files along with files in index are stashed</t>
+  </si>
+  <si>
+    <t>git stash pop</t>
+  </si>
+  <si>
+    <t>Remove the stashed state i.e stage@{0} from the stash list and apply it on top of the current working tree state, i.e., do the inverse operation of git stash push</t>
+  </si>
+  <si>
+    <t>Remove the stashed state i.e stage@{1} from the stash list and apply it on top of the current working tree state</t>
+  </si>
+  <si>
+    <t>git stash pop 1 |  git stash pop stash@{1}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Like pop, but does not remove the state from the stash list. </t>
+  </si>
+  <si>
+    <t>git stash apply 1 |  git stash apply stash@{1}</t>
+  </si>
+  <si>
+    <t>git stash push -u &lt;filepath&gt;</t>
+  </si>
+  <si>
+    <t>Only untracked file having &lt;filepath&gt; are pushed in stash</t>
+  </si>
+  <si>
+    <t>git stash clear</t>
+  </si>
+  <si>
+    <t>Remove all the stash entries.</t>
+  </si>
+  <si>
+    <t>git stash create</t>
+  </si>
+  <si>
+    <t>git stash store</t>
+  </si>
+  <si>
+    <t>git stash save</t>
+  </si>
+  <si>
+    <t>Do not use create instead use push</t>
+  </si>
+  <si>
+    <t>Do not use store instead use push</t>
+  </si>
+  <si>
+    <t>This option is deprecated. Do not use save instead use push</t>
+  </si>
+  <si>
+    <t>git tag -a v1.2 -f 98ujef8 -m "Moving tag to another commit"</t>
+  </si>
+  <si>
+    <t>Move existing tag from one to another commit</t>
+  </si>
+  <si>
+    <t>git checkout &lt;filename&gt;
+git restore &lt;filename&gt;</t>
+  </si>
+  <si>
+    <t>Both commands undo the changes in the files that are tracked but not committed</t>
+  </si>
+  <si>
+    <t>commit</t>
+  </si>
+  <si>
+    <t>git commit --amend -m "modified file1"</t>
+  </si>
+  <si>
+    <t>Updates the last commit message only</t>
+  </si>
+  <si>
+    <t>reset</t>
+  </si>
+  <si>
+    <t>git reset --soft &lt;commit id&gt;</t>
+  </si>
+  <si>
+    <t>git reset &lt;commit id&gt;</t>
+  </si>
+  <si>
+    <t>Reverts the codebase to that commit ID and retains all changes done after that commit ID in staging area</t>
+  </si>
+  <si>
+    <t>Reverts the codebase to that commit ID and retains all changes done after that commit ID in working area</t>
+  </si>
+  <si>
+    <t>git reset --hard &lt;commit id&gt;</t>
+  </si>
+  <si>
+    <t>Reverts the codebase to that commit ID and loose all changes done after that commit ID</t>
+  </si>
+  <si>
+    <t>git checkout &lt;commit id&gt;</t>
+  </si>
+  <si>
+    <t>git branch &lt;branchname&gt;</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>git clean -df</t>
+  </si>
+  <si>
+    <t>removed untracked files from working directory</t>
+  </si>
+  <si>
+    <t>E.g. git init --template=C:\\dummy1
+Files and directories in the template directory whose name do not start with a dot will be copied to the $GIT_DIR after it is created.
+The template directory will be one of the following (in order):
+1) the argument given with the --template option;
+2) the contents of the $GIT_TEMPLATE_DIR environment variable;
+3) the init.templateDir configuration variable; or
+4) the default template directory: mingw64\share\git-core\templates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git clone "local directory path" | git clone --local "local directory path" </t>
+  </si>
+  <si>
+    <t>E.g. git clone "C:\Users\jigar.mehta1\sample1\selenium" - Assuming selenium is a git folder then it is cloned to local folder
+If the path mentioned is local then --local is no-op or redundant</t>
   </si>
 </sst>
 </file>
@@ -2893,8 +3048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G72"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2994,10 +3149,10 @@
         <v>5</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30">
@@ -3016,10 +3171,10 @@
         <v>7</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F9" t="s">
         <v>253</v>
-      </c>
-      <c r="F9" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3027,7 +3182,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F10" t="s">
         <v>206</v>
@@ -3047,10 +3202,10 @@
         <v>9</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>395</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3072,7 +3227,7 @@
         <v>124</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3100,7 +3255,7 @@
         <v>146</v>
       </c>
       <c r="F15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30">
@@ -3111,7 +3266,7 @@
         <v>132</v>
       </c>
       <c r="F16" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="2:7">
@@ -3197,7 +3352,7 @@
         <v>22</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="2:7">
@@ -3945,12 +4100,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:D125"/>
+  <dimension ref="A1:D158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A126" sqref="A126"/>
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.42578125" defaultRowHeight="15"/>
@@ -3972,7 +4126,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45" hidden="1">
+    <row r="2" spans="1:4" ht="45">
       <c r="A2" s="2" t="s">
         <v>230</v>
       </c>
@@ -3983,7 +4137,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="60" hidden="1">
+    <row r="3" spans="1:4" ht="60">
       <c r="A3" s="2" t="s">
         <v>230</v>
       </c>
@@ -3994,7 +4148,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>230</v>
       </c>
@@ -4005,7 +4159,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="60" hidden="1">
+    <row r="5" spans="1:4" ht="60">
       <c r="A5" s="2" t="s">
         <v>230</v>
       </c>
@@ -4016,7 +4170,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1">
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>230</v>
       </c>
@@ -4027,7 +4181,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" hidden="1">
+    <row r="7" spans="1:4" ht="30">
       <c r="A7" s="2" t="s">
         <v>230</v>
       </c>
@@ -4038,7 +4192,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" hidden="1">
+    <row r="8" spans="1:4" ht="30">
       <c r="A8" s="2" t="s">
         <v>230</v>
       </c>
@@ -4049,7 +4203,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1">
+    <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
         <v>230</v>
       </c>
@@ -4060,7 +4214,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1">
+    <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
         <v>230</v>
       </c>
@@ -4071,7 +4225,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="120" hidden="1">
+    <row r="11" spans="1:4" ht="120">
       <c r="A11" s="2" t="s">
         <v>230</v>
       </c>
@@ -4079,1265 +4233,1524 @@
         <v>249</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30" hidden="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30">
       <c r="A12" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" hidden="1">
-      <c r="A13" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" hidden="1">
-      <c r="A14" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C14" s="2" t="s">
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" hidden="1">
-      <c r="A15" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1">
-      <c r="A16" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C16" s="2" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" hidden="1">
-      <c r="A17" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="18" spans="1:3" hidden="1">
-      <c r="A18" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B18" s="2" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" hidden="1">
-      <c r="A19" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="C20" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30">
+      <c r="A27" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30">
+      <c r="A28" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30">
+      <c r="A29" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" hidden="1">
-      <c r="A20" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" hidden="1">
-      <c r="A21" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" hidden="1">
-      <c r="A22" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" hidden="1">
-      <c r="A23" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" hidden="1">
-      <c r="A24" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" hidden="1">
-      <c r="A25" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" hidden="1">
-      <c r="A26" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="30" hidden="1">
-      <c r="A27" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="30" hidden="1">
-      <c r="A28" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="30" hidden="1">
-      <c r="A29" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="1:3" hidden="1">
-      <c r="A30" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B30" s="2" t="s">
+    <row r="31" spans="1:3">
+      <c r="A31" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="31" spans="1:3" hidden="1">
-      <c r="A31" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B31" s="2" t="s">
+    <row r="32" spans="1:3">
+      <c r="A32" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="32" spans="1:3" hidden="1">
-      <c r="A32" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B32" s="2" t="s">
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C33" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="33" spans="1:3" hidden="1">
-      <c r="A33" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C33" s="2" t="s">
+    <row r="35" spans="1:3">
+      <c r="A35" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="34" spans="1:3" hidden="1">
-      <c r="A34" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" hidden="1">
-      <c r="A35" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B35" s="2" t="s">
+    <row r="36" spans="1:3">
+      <c r="A36" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C36" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" hidden="1">
-      <c r="A36" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C36" s="2" t="s">
+      <c r="C37" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="37" spans="1:3" hidden="1">
-      <c r="A37" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" hidden="1">
-      <c r="A38" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B38" s="2" t="s">
+    <row r="39" spans="1:3">
+      <c r="A39" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="39" spans="1:3" hidden="1">
-      <c r="A39" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C39" s="2" t="s">
+    <row r="40" spans="1:3" ht="30">
+      <c r="A40" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="30" hidden="1">
-      <c r="A40" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="30">
+      <c r="A41" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30" hidden="1">
-      <c r="A41" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B41" s="2" t="s">
+    <row r="42" spans="1:3" ht="30">
+      <c r="A42" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="30" hidden="1">
-      <c r="A42" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C42" s="2" t="s">
+    <row r="43" spans="1:3">
+      <c r="A43" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" hidden="1">
-      <c r="A43" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C43" s="2" t="s">
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" hidden="1">
-      <c r="A44" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="45" spans="1:3" hidden="1">
-      <c r="A45" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C45" s="2" t="s">
+    <row r="46" spans="1:3" ht="30">
+      <c r="A46" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="30" hidden="1">
-      <c r="A46" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="30">
+      <c r="A47" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="30" hidden="1">
-      <c r="A47" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B47" s="2" t="s">
+    <row r="48" spans="1:3" ht="30">
+      <c r="A48" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="30" hidden="1">
-      <c r="A48" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B48" s="2" t="s">
+    <row r="49" spans="1:3" ht="30">
+      <c r="A49" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="30" hidden="1">
-      <c r="A49" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B49" s="2" t="s">
+    <row r="50" spans="1:3" ht="30">
+      <c r="A50" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="30" hidden="1">
-      <c r="A50" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B50" s="2" t="s">
+    <row r="51" spans="1:3" ht="30">
+      <c r="A51" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="30" hidden="1">
-      <c r="A51" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B51" s="2" t="s">
+    <row r="52" spans="1:3">
+      <c r="A52" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="52" spans="1:3" hidden="1">
-      <c r="A52" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C52" s="2" t="s">
+    <row r="53" spans="1:3">
+      <c r="A53" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" hidden="1">
-      <c r="A53" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B53" s="2" t="s">
+      <c r="C53" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="54" spans="1:3" hidden="1">
-      <c r="A54" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C54" s="2" t="s">
+    <row r="55" spans="1:3">
+      <c r="A55" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" hidden="1">
-      <c r="A55" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B55" s="2" t="s">
+      <c r="C55" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="56" spans="1:3" hidden="1">
-      <c r="A56" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B56" s="2" t="s">
+    <row r="57" spans="1:3">
+      <c r="A57" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="57" spans="1:3" hidden="1">
-      <c r="A57" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="C57" s="2" t="s">
+    <row r="58" spans="1:3">
+      <c r="A58" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" hidden="1">
-      <c r="A58" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B58" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C58" s="2" t="s">
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="59" spans="1:3" hidden="1">
-      <c r="A59" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="C59" s="2" t="s">
+    <row r="60" spans="1:3">
+      <c r="A60" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="60" spans="1:3" hidden="1">
-      <c r="A60" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="C60" s="2" t="s">
+    <row r="61" spans="1:3">
+      <c r="A61" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" hidden="1">
-      <c r="A61" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B61" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="C61" s="2" t="s">
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" hidden="1">
-      <c r="A62" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B62" s="2" t="s">
+      <c r="C62" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="63" spans="1:3" hidden="1">
-      <c r="A63" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C63" s="2" t="s">
+    <row r="64" spans="1:3">
+      <c r="A64" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" hidden="1">
-      <c r="A64" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B64" s="2" t="s">
+      <c r="C64" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="65" spans="1:3" hidden="1">
-      <c r="A65" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B65" s="2" t="s">
+    <row r="66" spans="1:3">
+      <c r="A66" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C66" s="2" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="66" spans="1:3" hidden="1">
-      <c r="A66" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="30" hidden="1">
+    <row r="67" spans="1:3" ht="30">
       <c r="A67" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="C67" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="30">
+      <c r="A68" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C68" s="2" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="30" hidden="1">
-      <c r="A68" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="B68" s="2" t="s">
+    <row r="69" spans="1:3">
+      <c r="A69" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C69" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="69" spans="1:3" hidden="1">
-      <c r="A69" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" hidden="1">
-      <c r="A70" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" hidden="1">
-      <c r="A71" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" hidden="1">
-      <c r="A72" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="B72" s="2" t="s">
+    <row r="73" spans="1:3">
+      <c r="A73" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C73" s="2" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="73" spans="1:3" hidden="1">
-      <c r="A73" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="B73" s="2" t="s">
+    <row r="74" spans="1:3" ht="30">
+      <c r="A74" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C74" s="2" t="s">
         <v>380</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="30" hidden="1">
-      <c r="A74" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="30">
       <c r="A75" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="30">
       <c r="A76" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="45">
       <c r="A77" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>386</v>
-      </c>
       <c r="C77" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="30">
       <c r="A78" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>387</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>389</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" hidden="1">
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="C82" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="B83" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="30">
+      <c r="A84" s="2" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" hidden="1">
-      <c r="A83" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="C83" s="2" t="s">
+      <c r="B84" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="2" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" hidden="1">
-      <c r="A84" s="2" t="s">
+      <c r="B85" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="30">
+      <c r="A86" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="C86" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="C84" s="2" t="s">
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="2" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" hidden="1">
-      <c r="A85" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="B85" s="2" t="s">
+      <c r="B95" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="75">
+      <c r="A96" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="30" hidden="1">
-      <c r="A86" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" hidden="1">
-      <c r="A87" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="75" hidden="1">
-      <c r="A88" s="2" t="s">
+    <row r="97" spans="1:3" ht="105">
+      <c r="A97" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B97" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C97" s="2" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="105" hidden="1">
-      <c r="A89" s="2" t="s">
+    <row r="98" spans="1:3">
+      <c r="A98" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B98" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C98" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" hidden="1">
-      <c r="A90" s="2" t="s">
+      <c r="C99" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B90" s="2" t="s">
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C100" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="91" spans="1:3" hidden="1">
-      <c r="A91" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" hidden="1">
-      <c r="A92" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="C92" s="2" t="s">
+    <row r="102" spans="1:3">
+      <c r="A102" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" hidden="1">
-      <c r="A93" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="B93" s="2" t="s">
+      <c r="C102" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="60">
+      <c r="A103" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="30">
+      <c r="A104" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" hidden="1">
-      <c r="A94" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="C94" s="2" t="s">
+      <c r="B104" s="2" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" ht="60" hidden="1">
-      <c r="A95" s="2" t="s">
+      <c r="C104" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="30" hidden="1">
-      <c r="A96" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" hidden="1">
-      <c r="A97" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" hidden="1">
-      <c r="A98" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="45" hidden="1">
-      <c r="A99" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" hidden="1">
-      <c r="A100" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="30" hidden="1">
-      <c r="A101" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="45" hidden="1">
-      <c r="A102" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="45" hidden="1">
-      <c r="A103" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="30" hidden="1">
-      <c r="A104" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" hidden="1">
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" s="2" t="s">
         <v>413</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>453</v>
+        <v>429</v>
       </c>
       <c r="C105" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="45">
+      <c r="A107" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="30">
+      <c r="A109" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="45">
+      <c r="A110" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="45">
+      <c r="A111" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="30">
+      <c r="A112" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" hidden="1">
-      <c r="A106" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="B106" s="2" t="s">
+      <c r="C114" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C115" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="C106" s="2" t="s">
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="2" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" hidden="1">
-      <c r="A107" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="B107" s="2" t="s">
+      <c r="B119" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="45">
+      <c r="A123" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="30">
+      <c r="A125" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="30">
+      <c r="A126" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="30">
+      <c r="A128" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="30">
+      <c r="A129" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="30">
+      <c r="A130" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="45">
+      <c r="A132" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" hidden="1">
-      <c r="A108" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" hidden="1">
-      <c r="A109" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" hidden="1">
-      <c r="A110" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" hidden="1">
-      <c r="A111" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" hidden="1">
-      <c r="A112" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" hidden="1">
-      <c r="A113" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" hidden="1">
-      <c r="A114" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="45" hidden="1">
-      <c r="A115" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" hidden="1">
-      <c r="A116" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="30" hidden="1">
-      <c r="A117" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="30" hidden="1">
-      <c r="A118" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" hidden="1">
-      <c r="A119" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="30" hidden="1">
-      <c r="A120" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="C120" s="2" t="s">
+      <c r="B133" s="2" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" ht="45" hidden="1">
-      <c r="A121" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="C121" s="2" t="s">
+      <c r="C133" s="2" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="122" spans="1:3" hidden="1">
-      <c r="A122" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="45">
-      <c r="A124" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="B124" s="2" t="s">
+    <row r="134" spans="1:3">
+      <c r="A134" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="45">
+      <c r="A135" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="45">
+      <c r="A136" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C136" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="C124" s="2" t="s">
+    </row>
+    <row r="137" spans="1:3" ht="30">
+      <c r="A137" s="2" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" ht="45">
-      <c r="A125" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="B125" s="2" t="s">
+      <c r="B137" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C137" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>506</v>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="30">
+      <c r="A142" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="30">
+      <c r="A143" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="30">
+      <c r="A146" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>554</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D122">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="add"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -5360,7 +5773,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B1" t="s">
         <v>115</v>
@@ -5368,18 +5781,18 @@
     </row>
     <row r="2" spans="1:2" ht="30">
       <c r="A2" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
